--- a/office/excel/exercises/formulas/battleship.xlsx
+++ b/office/excel/exercises/formulas/battleship.xlsx
@@ -132,49 +132,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -227,13 +185,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -241,7 +192,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1019,26 +970,26 @@
     <mergeCell ref="L1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:U2">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:U11">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1162,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
